--- a/タスク.xlsx
+++ b/タスク.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcpro32.PCPRO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcpro32.PCPRO\Documents\project001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="動画" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション!$A$1:$F$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">アプリケーション!$A$1:$F$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ドキュメント!$A$1:$F$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">動画!$A$1:$F$24</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>メモ</t>
   </si>
@@ -342,6 +342,20 @@
   </si>
   <si>
     <t>QRコードフォルダ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>資材</t>
+    <rPh sb="0" eb="2">
+      <t>シザイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アイコン作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -774,7 +788,96 @@
     <cellStyle name="Custom Style 2" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1700,8 +1803,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B29:E38" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="B29:E38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B40:E49" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="B40:E49"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="進捗" dataDxfId="57"/>
+    <tableColumn id="2" name="タスク" dataDxfId="56"/>
+    <tableColumn id="3" name="種別" dataDxfId="55"/>
+    <tableColumn id="4" name="メモ" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table38133" displayName="Table38133" ref="B5:E13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B5:E13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="進捗" dataDxfId="9"/>
+    <tableColumn id="2" name="タスク" dataDxfId="8"/>
+    <tableColumn id="3" name="種別" dataDxfId="7"/>
+    <tableColumn id="4" name="メモ" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="B53:E62" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="B53:E62"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="51"/>
     <tableColumn id="2" name="タスク" dataDxfId="50"/>
@@ -1712,9 +1841,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="B42:E51" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="B42:E51"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table159" displayName="Table159" ref="B16:E24" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="B16:E24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="45"/>
     <tableColumn id="2" name="タスク" dataDxfId="44"/>
@@ -1725,9 +1854,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table159" displayName="Table159" ref="B5:E13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="B5:E13"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table15910" displayName="Table15910" ref="B28:E36" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B28:E36"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="39"/>
     <tableColumn id="2" name="タスク" dataDxfId="38"/>
@@ -1738,9 +1867,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table15910" displayName="Table15910" ref="B17:E25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="B17:E25"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1592" displayName="Table1592" ref="B5:E13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B5:E13"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="進捗" dataDxfId="3"/>
+    <tableColumn id="2" name="タスク" dataDxfId="2"/>
+    <tableColumn id="3" name="種別" dataDxfId="1"/>
+    <tableColumn id="4" name="メモ" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table312" displayName="Table312" ref="B29:E38" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B29:E38"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="33"/>
     <tableColumn id="2" name="タスク" dataDxfId="32"/>
@@ -1751,9 +1893,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table312" displayName="Table312" ref="B29:E38" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="B29:E38"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table3813" displayName="Table3813" ref="B42:E51" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B42:E51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="27"/>
     <tableColumn id="2" name="タスク" dataDxfId="26"/>
@@ -1764,9 +1906,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table3813" displayName="Table3813" ref="B42:E51" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B42:E51"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table15914" displayName="Table15914" ref="B5:E13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B5:E13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="21"/>
     <tableColumn id="2" name="タスク" dataDxfId="20"/>
@@ -1777,40 +1919,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table15914" displayName="Table15914" ref="B5:E13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B5:E13"/>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1591015" displayName="Table1591015" ref="B17:E25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B17:E25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="進捗" dataDxfId="15"/>
     <tableColumn id="2" name="タスク" dataDxfId="14"/>
     <tableColumn id="3" name="種別" dataDxfId="13"/>
     <tableColumn id="4" name="メモ" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1591015" displayName="Table1591015" ref="B17:E25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B17:E25"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="進捗" dataDxfId="9"/>
-    <tableColumn id="2" name="タスク" dataDxfId="8"/>
-    <tableColumn id="3" name="種別" dataDxfId="7"/>
-    <tableColumn id="4" name="メモ" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table38133" displayName="Table38133" ref="B5:E13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B5:E13"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="進捗" dataDxfId="3"/>
-    <tableColumn id="2" name="タスク" dataDxfId="2"/>
-    <tableColumn id="3" name="種別" dataDxfId="1"/>
-    <tableColumn id="4" name="メモ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2299,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E51"/>
+  <dimension ref="B1:E62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:D44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2444,7 @@
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -2352,7 +2468,9 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7"/>
     </row>
@@ -2412,33 +2530,35 @@
       <c r="D13" s="14"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -2492,148 +2612,154 @@
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
-        <v>0</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B42" s="10">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="5"/>
+      <c r="B43" s="10">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>0</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -2641,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -2649,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="13"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -2657,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -2665,44 +2791,123 @@
         <v>0</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="13"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="10">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="9"/>
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>0</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="10">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="11">
+        <v>0</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B28:E28"/>
+  <mergeCells count="6">
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="B30:B38">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="B41:B49">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2710,8 +2915,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B51">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="B54:B62">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2719,7 +2924,34 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B14">
+  <conditionalFormatting sqref="B21:B25">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18 B20">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B36">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -2728,7 +2960,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7 B9">
+  <conditionalFormatting sqref="B29:B30 B32">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -2737,7 +2969,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B31">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -2746,8 +2978,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="B10:B13">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2755,8 +2987,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B19 B21">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="B6:B7 B9">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2764,8 +2996,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2774,18 +3006,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D13 D18:D25 D30:D38 D43:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D24 D29:D36 D41:D49 D54:D62 D6:D13">
       <formula1>"実装,資材,設定ファイル"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
